--- a/files/Cunipic.xlsx
+++ b/files/Cunipic.xlsx
@@ -698,23 +698,23 @@
       </c>
       <c r="R3" s="2"/>
       <c r="S3" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T3" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W3" t="str">
         <f>F3+I3+L3+O3+R3+U3</f>
         <v>0</v>
       </c>
       <c r="X3" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Y3">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Z3">
-        <v>585</v>
+        <v>675</v>
       </c>
     </row>
     <row r="4" spans="1:26">
@@ -766,14 +766,14 @@
         <v>1</v>
       </c>
       <c r="T4" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W4" t="str">
         <f>F4+I4+L4+O4+R4+U4</f>
         <v>0</v>
       </c>
       <c r="X4" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y4">
         <v>11</v>
@@ -793,17 +793,17 @@
         <v>20</v>
       </c>
       <c r="D5" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E5" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H5" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="3">
@@ -814,10 +814,10 @@
       </c>
       <c r="L5" s="2"/>
       <c r="M5" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N5" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" s="3">
@@ -838,13 +838,13 @@
         <v>0</v>
       </c>
       <c r="X5" s="5">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="Y5">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="Z5">
-        <v>420</v>
+        <v>560</v>
       </c>
     </row>
     <row r="6" spans="1:26">
@@ -865,17 +865,17 @@
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H6" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K6" s="4">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="L6" s="2"/>
       <c r="M6" s="3">
@@ -903,13 +903,13 @@
         <v>0</v>
       </c>
       <c r="X6" s="5">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="Y6">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="Z6">
-        <v>420</v>
+        <v>520</v>
       </c>
     </row>
     <row r="7" spans="1:26">
@@ -937,10 +937,10 @@
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K7" s="4">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="L7" s="2"/>
       <c r="M7" s="3">
@@ -951,30 +951,30 @@
       </c>
       <c r="O7" s="2"/>
       <c r="P7" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q7" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R7" s="2"/>
       <c r="S7" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T7" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W7" t="str">
         <f>F7+I7+L7+O7+R7+U7</f>
         <v>0</v>
       </c>
       <c r="X7" s="5">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="Y7">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="Z7">
-        <v>200</v>
+        <v>300</v>
       </c>
     </row>
     <row r="8" spans="1:26">
@@ -1016,10 +1016,10 @@
       </c>
       <c r="O8" s="2"/>
       <c r="P8" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q8" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R8" s="2"/>
       <c r="S8" s="3">
@@ -1033,13 +1033,13 @@
         <v>0</v>
       </c>
       <c r="X8" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y8">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="Z8">
-        <v>1040</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="9" spans="1:26">
@@ -1067,17 +1067,17 @@
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K9" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L9" s="2"/>
       <c r="M9" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N9" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" s="3">
@@ -1088,23 +1088,23 @@
       </c>
       <c r="R9" s="2"/>
       <c r="S9" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T9" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W9" t="str">
         <f>F9+I9+L9+O9+R9+U9</f>
         <v>0</v>
       </c>
       <c r="X9" s="5">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Y9">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="Z9">
-        <v>1400</v>
+        <v>1800</v>
       </c>
     </row>
   </sheetData>

--- a/files/Cunipic.xlsx
+++ b/files/Cunipic.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="37">
   <si>
     <t>coolock
 (PTZ01)</t>
@@ -37,7 +37,7 @@
 (PTZ05)</t>
   </si>
   <si>
-    <t>bloomfield
+    <t>bloomfields
 (PTZ06)</t>
   </si>
   <si>
@@ -72,6 +72,30 @@
 value</t>
   </si>
   <si>
+    <t>Cunipic Beige Chinchilla</t>
+  </si>
+  <si>
+    <t>CHIB</t>
+  </si>
+  <si>
+    <t>Cunipic Ebony Chincilla</t>
+  </si>
+  <si>
+    <t>CHIE</t>
+  </si>
+  <si>
+    <t>Cunipic Gerbil</t>
+  </si>
+  <si>
+    <t>GER</t>
+  </si>
+  <si>
+    <t>Cunipic Grey Chinchilla</t>
+  </si>
+  <si>
+    <t>CHIG</t>
+  </si>
+  <si>
     <t>Cunipic Guinea Pig Long Hair</t>
   </si>
   <si>
@@ -102,10 +126,10 @@
     <t>HAM5C</t>
   </si>
   <si>
-    <t>Cunipic Rabbit</t>
-  </si>
-  <si>
-    <t>CONS</t>
+    <t>Cunipic Lop Ear Pedigree</t>
+  </si>
+  <si>
+    <t>CON2</t>
   </si>
   <si>
     <t>Cunipic Rabbit Pedigree</t>
@@ -510,7 +534,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:Z9"/>
+  <dimension ref="A1:Z13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="D2" sqref="D2"/>
@@ -677,14 +701,14 @@
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="3">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="K3" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L3" s="2"/>
       <c r="M3" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N3" s="4">
         <v>0</v>
@@ -694,11 +718,11 @@
         <v>0</v>
       </c>
       <c r="Q3" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R3" s="2"/>
       <c r="S3" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T3" s="4">
         <v>0</v>
@@ -708,13 +732,13 @@
         <v>0</v>
       </c>
       <c r="X3" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Y3">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>675</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:26">
@@ -742,14 +766,14 @@
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="3">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="K4" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" s="2"/>
       <c r="M4" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4" s="4">
         <v>0</v>
@@ -759,27 +783,27 @@
         <v>0</v>
       </c>
       <c r="Q4" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4" s="2"/>
       <c r="S4" s="3">
+        <v>0</v>
+      </c>
+      <c r="T4" s="4">
         <v>1</v>
-      </c>
-      <c r="T4" s="4">
-        <v>0</v>
       </c>
       <c r="W4" t="str">
         <f>F4+I4+L4+O4+R4+U4</f>
         <v>0</v>
       </c>
       <c r="X4" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y4">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>385</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:26">
@@ -793,58 +817,58 @@
         <v>20</v>
       </c>
       <c r="D5" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E5" s="4">
         <v>0</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H5" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K5" s="4">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="L5" s="2"/>
       <c r="M5" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="N5" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R5" s="2"/>
       <c r="S5" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T5" s="4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W5" t="str">
         <f>F5+I5+L5+O5+R5+U5</f>
         <v>0</v>
       </c>
       <c r="X5" s="5">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="Y5">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="Z5">
-        <v>560</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:26">
@@ -858,58 +882,58 @@
         <v>22</v>
       </c>
       <c r="D6" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H6" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K6" s="4">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="L6" s="2"/>
       <c r="M6" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N6" s="4">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R6" s="2"/>
       <c r="S6" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T6" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W6" t="str">
         <f>F6+I6+L6+O6+R6+U6</f>
         <v>0</v>
       </c>
       <c r="X6" s="5">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="Y6">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>520</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:26">
@@ -923,10 +947,10 @@
         <v>24</v>
       </c>
       <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
         <v>1</v>
-      </c>
-      <c r="E7" s="4">
-        <v>4</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="3">
@@ -937,28 +961,28 @@
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="3">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="K7" s="4">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="L7" s="2"/>
       <c r="M7" s="3">
         <v>2</v>
       </c>
       <c r="N7" s="4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R7" s="2"/>
       <c r="S7" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T7" s="4">
         <v>0</v>
@@ -968,13 +992,13 @@
         <v>0</v>
       </c>
       <c r="X7" s="5">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="Y7">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="Z7">
-        <v>300</v>
+        <v>855</v>
       </c>
     </row>
     <row r="8" spans="1:26">
@@ -988,10 +1012,10 @@
         <v>26</v>
       </c>
       <c r="D8" s="3">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4">
         <v>1</v>
-      </c>
-      <c r="E8" s="4">
-        <v>0</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="3">
@@ -1002,44 +1026,44 @@
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="3">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="K8" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L8" s="2"/>
       <c r="M8" s="3">
+        <v>3</v>
+      </c>
+      <c r="N8" s="4">
         <v>4</v>
-      </c>
-      <c r="N8" s="4">
-        <v>0</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q8" s="4">
         <v>0</v>
       </c>
       <c r="R8" s="2"/>
       <c r="S8" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T8" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W8" t="str">
         <f>F8+I8+L8+O8+R8+U8</f>
         <v>0</v>
       </c>
       <c r="X8" s="5">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Y8">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="Z8">
-        <v>1170</v>
+        <v>560</v>
       </c>
     </row>
     <row r="9" spans="1:26">
@@ -1056,55 +1080,315 @@
         <v>1</v>
       </c>
       <c r="E9" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H9" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="3">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="K9" s="4">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="L9" s="2"/>
       <c r="M9" s="3">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="N9" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q9" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R9" s="2"/>
       <c r="S9" s="3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="T9" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W9" t="str">
         <f>F9+I9+L9+O9+R9+U9</f>
         <v>0</v>
       </c>
       <c r="X9" s="5">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="Y9">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="Z9">
-        <v>1800</v>
+        <v>660</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="4">
+        <v>3</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2"/>
+      <c r="J10" s="3">
+        <v>4</v>
+      </c>
+      <c r="K10" s="4">
+        <v>9</v>
+      </c>
+      <c r="L10" s="2"/>
+      <c r="M10" s="3">
+        <v>0</v>
+      </c>
+      <c r="N10" s="4">
+        <v>4</v>
+      </c>
+      <c r="O10" s="2"/>
+      <c r="P10" s="3">
+        <v>5</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>0</v>
+      </c>
+      <c r="R10" s="2"/>
+      <c r="S10" s="3">
+        <v>6</v>
+      </c>
+      <c r="T10" s="4">
+        <v>0</v>
+      </c>
+      <c r="W10" t="str">
+        <f>F10+I10+L10+O10+R10+U10</f>
+        <v>0</v>
+      </c>
+      <c r="X10" s="5">
+        <v>16</v>
+      </c>
+      <c r="Y10">
+        <v>15</v>
+      </c>
+      <c r="Z10">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0</v>
+      </c>
+      <c r="E11" s="4">
+        <v>3</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="3">
+        <v>0</v>
+      </c>
+      <c r="H11" s="4">
+        <v>4</v>
+      </c>
+      <c r="I11" s="2"/>
+      <c r="J11" s="3">
+        <v>3</v>
+      </c>
+      <c r="K11" s="4">
+        <v>1</v>
+      </c>
+      <c r="L11" s="2"/>
+      <c r="M11" s="3">
+        <v>2</v>
+      </c>
+      <c r="N11" s="4">
+        <v>3</v>
+      </c>
+      <c r="O11" s="2"/>
+      <c r="P11" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>0</v>
+      </c>
+      <c r="R11" s="2"/>
+      <c r="S11" s="3">
+        <v>2</v>
+      </c>
+      <c r="T11" s="4">
+        <v>3</v>
+      </c>
+      <c r="W11" t="str">
+        <f>F11+I11+L11+O11+R11+U11</f>
+        <v>0</v>
+      </c>
+      <c r="X11" s="5">
+        <v>14</v>
+      </c>
+      <c r="Y11">
+        <v>9</v>
+      </c>
+      <c r="Z11">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26">
+      <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="3">
+        <v>1</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2"/>
+      <c r="J12" s="3">
+        <v>0</v>
+      </c>
+      <c r="K12" s="4">
+        <v>0</v>
+      </c>
+      <c r="L12" s="2"/>
+      <c r="M12" s="3">
+        <v>5</v>
+      </c>
+      <c r="N12" s="4">
+        <v>0</v>
+      </c>
+      <c r="O12" s="2"/>
+      <c r="P12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="4">
+        <v>2</v>
+      </c>
+      <c r="R12" s="2"/>
+      <c r="S12" s="3">
+        <v>3</v>
+      </c>
+      <c r="T12" s="4">
+        <v>1</v>
+      </c>
+      <c r="W12" t="str">
+        <f>F12+I12+L12+O12+R12+U12</f>
+        <v>0</v>
+      </c>
+      <c r="X12" s="5">
+        <v>3</v>
+      </c>
+      <c r="Y12">
+        <v>9</v>
+      </c>
+      <c r="Z12">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="3">
+        <v>1</v>
+      </c>
+      <c r="H13" s="4">
+        <v>1</v>
+      </c>
+      <c r="I13" s="2"/>
+      <c r="J13" s="3">
+        <v>20</v>
+      </c>
+      <c r="K13" s="4">
+        <v>0</v>
+      </c>
+      <c r="L13" s="2"/>
+      <c r="M13" s="3">
+        <v>8</v>
+      </c>
+      <c r="N13" s="4">
+        <v>0</v>
+      </c>
+      <c r="O13" s="2"/>
+      <c r="P13" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>0</v>
+      </c>
+      <c r="R13" s="2"/>
+      <c r="S13" s="3">
+        <v>4</v>
+      </c>
+      <c r="T13" s="4">
+        <v>0</v>
+      </c>
+      <c r="W13" t="str">
+        <f>F13+I13+L13+O13+R13+U13</f>
+        <v>0</v>
+      </c>
+      <c r="X13" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y13">
+        <v>36</v>
+      </c>
+      <c r="Z13">
+        <v>3600</v>
       </c>
     </row>
   </sheetData>
